--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDEAB7-878C-4C44-B361-2F066DDF2830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8465D504-1061-4DDC-AD84-3F18B5135152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet3!$A$1:$Q$234</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Calculate the correlation of the following data</t>
   </si>
@@ -479,6 +482,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>Md class</t>
   </si>
   <si>
@@ -495,6 +501,21 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>the mean median and mode of the above distribution is</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Calculate the Standard Deviation of the following data</t>
+  </si>
+  <si>
+    <t>X: 1,4,6,8,2,3,5</t>
+  </si>
+  <si>
+    <t>Caclulate the SD of the following data</t>
   </si>
 </sst>
 </file>
@@ -586,7 +607,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -823,11 +844,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -957,6 +991,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3907,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC71F3-EDAC-4C28-A1D6-182EE705764F}">
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A184" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,14 +5554,14 @@
         <v>9</v>
       </c>
       <c r="I152" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J152">
         <f>J147/2</f>
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -5535,7 +5576,7 @@
       <c r="G153" s="44"/>
       <c r="H153" s="44"/>
       <c r="I153" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J153">
         <f>M144+(J152-P143)/J144*O144</f>
@@ -5544,7 +5585,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J154" s="51" t="str">
         <f>M136</f>
@@ -5553,7 +5594,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J155">
         <f>J144-J143</f>
@@ -5562,7 +5603,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I156" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J156">
         <f>J144-J145</f>
@@ -5578,10 +5619,220 @@
         <v>25</v>
       </c>
     </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J160" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K160" s="44"/>
+    </row>
+    <row r="161" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J161" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K161" s="44"/>
+      <c r="L161" s="44"/>
+      <c r="M161" s="44"/>
+      <c r="N161" s="44"/>
+      <c r="O161" s="44"/>
+    </row>
+    <row r="162" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>24</v>
+      </c>
+      <c r="K162">
+        <f>J151</f>
+        <v>25.952380952380953</v>
+      </c>
+    </row>
+    <row r="163" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>79</v>
+      </c>
+      <c r="K163">
+        <f>J153</f>
+        <v>25.625</v>
+      </c>
+    </row>
+    <row r="164" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>87</v>
+      </c>
+      <c r="K164">
+        <f>J157</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J185" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K185" s="44"/>
+      <c r="L185" s="44"/>
+      <c r="M185" s="44"/>
+      <c r="N185" s="44"/>
+      <c r="O185" s="44"/>
+      <c r="P185" s="44"/>
+    </row>
+    <row r="186" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K186" s="43"/>
+    </row>
+    <row r="187" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K187" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L187" s="53">
+        <v>10</v>
+      </c>
+      <c r="M187" s="53">
+        <v>20</v>
+      </c>
+      <c r="N187" s="53">
+        <v>30</v>
+      </c>
+      <c r="O187" s="53">
+        <v>40</v>
+      </c>
+      <c r="P187" s="59"/>
+    </row>
+    <row r="188" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K188" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L188" s="56">
+        <v>2</v>
+      </c>
+      <c r="M188" s="56">
+        <v>5</v>
+      </c>
+      <c r="N188" s="56">
+        <v>3</v>
+      </c>
+      <c r="O188" s="56">
+        <v>2</v>
+      </c>
+      <c r="P188" s="59"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K189" s="43"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>4</v>
+      </c>
+      <c r="I192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>6</v>
+      </c>
+      <c r="I193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>8</v>
+      </c>
+      <c r="I194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" s="58">
+        <f>_xlfn.STDEV.P(A190:A197)</f>
+        <v>2.2314999074019015</v>
+      </c>
+      <c r="I200">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
+        <v>40</v>
+      </c>
+      <c r="J205">
+        <f>_xlfn.STDEV.P(I191:I202)</f>
+        <v>9.5379359518829983</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
     <mergeCell ref="A135:H135"/>
     <mergeCell ref="A153:H153"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J161:O161"/>
+    <mergeCell ref="J185:P185"/>
     <mergeCell ref="J99:M99"/>
     <mergeCell ref="N96:O96"/>
     <mergeCell ref="N104:O105"/>

--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8465D504-1061-4DDC-AD84-3F18B5135152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F6A920-7FF2-4E38-9162-C0AC25AAC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>

--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F6A920-7FF2-4E38-9162-C0AC25AAC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D9730C-AB88-40D9-8FE4-839B7B576E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>
@@ -955,27 +955,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,6 +978,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3950,7 +3950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC71F3-EDAC-4C28-A1D6-182EE705764F}">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A184" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="10" zoomScaleNormal="85" zoomScalePageLayoutView="10" workbookViewId="0">
       <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
@@ -4029,45 +4029,45 @@
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="K7" s="49" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="K7" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -4076,48 +4076,48 @@
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -4125,10 +4125,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4139,10 +4139,10 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
@@ -4386,10 +4386,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="55"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4514,17 +4514,17 @@
       <c r="A48" s="41">
         <v>1</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="K48" s="48">
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="K48" s="59">
         <v>1</v>
       </c>
-      <c r="L48" s="48"/>
+      <c r="L48" s="59"/>
     </row>
     <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
     </row>
     <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
@@ -4847,10 +4847,10 @@
       <c r="C72" s="11"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="46"/>
+      <c r="C75" s="55"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4900,20 +4900,20 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K88" s="44" t="s">
+      <c r="K88" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="53"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
@@ -4936,7 +4936,7 @@
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="44" t="s">
         <v>1</v>
       </c>
       <c r="K91" t="s">
@@ -4967,14 +4967,14 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="K93" s="44" t="s">
+      <c r="K93" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="53"/>
+      <c r="N93" s="53"/>
+      <c r="O93" s="53"/>
+      <c r="P93" s="53"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
@@ -4990,25 +4990,25 @@
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="J96" s="45" t="s">
+      <c r="J96" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K96" s="44"/>
-      <c r="N96" s="45" t="s">
+      <c r="K96" s="53"/>
+      <c r="N96" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="O96" s="45"/>
+      <c r="O96" s="54"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="J97" s="44" t="s">
+      <c r="J97" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="44"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
+      <c r="M97" s="53"/>
       <c r="N97" t="s">
         <v>1</v>
       </c>
@@ -5020,12 +5020,12 @@
       <c r="B98">
         <v>10</v>
       </c>
-      <c r="J98" s="44" t="s">
+      <c r="J98" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="44"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="44"/>
+      <c r="K98" s="53"/>
+      <c r="L98" s="53"/>
+      <c r="M98" s="53"/>
       <c r="N98">
         <v>2</v>
       </c>
@@ -5037,12 +5037,12 @@
       <c r="B99">
         <v>6</v>
       </c>
-      <c r="J99" s="44" t="s">
+      <c r="J99" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53"/>
+      <c r="M99" s="53"/>
       <c r="N99">
         <v>7</v>
       </c>
@@ -5078,14 +5078,14 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N104" s="44" t="s">
+      <c r="N104" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O104" s="44"/>
+      <c r="O104" s="53"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N105" s="44"/>
-      <c r="O105" s="44"/>
+      <c r="N105" s="53"/>
+      <c r="O105" s="53"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N106" t="s">
@@ -5133,31 +5133,31 @@
       </c>
     </row>
     <row r="122" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K122" s="45" t="s">
+      <c r="K122" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L122" s="44"/>
+      <c r="L122" s="53"/>
     </row>
     <row r="123" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K123" s="44" t="s">
+      <c r="K123" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L123" s="44"/>
+      <c r="L123" s="53"/>
       <c r="M123" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="44" t="s">
+      <c r="A135" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="53"/>
       <c r="J135" t="s">
         <v>64</v>
       </c>
@@ -5171,22 +5171,22 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
-      <c r="J136" s="52" t="s">
+      <c r="J136" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="K136" s="53" t="s">
+      <c r="K136" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="L136" s="54" t="s">
+      <c r="L136" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="M136" s="53" t="s">
+      <c r="M136" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="N136" s="53" t="s">
+      <c r="N136" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="O136" s="53" t="s">
+      <c r="O136" s="46" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5209,22 +5209,22 @@
       <c r="F137">
         <v>4</v>
       </c>
-      <c r="J137" s="55" t="s">
+      <c r="J137" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="K137" s="56">
+      <c r="K137" s="49">
         <v>2</v>
       </c>
-      <c r="L137" s="56">
+      <c r="L137" s="49">
         <v>10</v>
       </c>
-      <c r="M137" s="56">
+      <c r="M137" s="49">
         <v>16</v>
       </c>
-      <c r="N137" s="56">
+      <c r="N137" s="49">
         <v>10</v>
       </c>
-      <c r="O137" s="56">
+      <c r="O137" s="49">
         <v>4</v>
       </c>
     </row>
@@ -5565,16 +5565,16 @@
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="44" t="s">
+      <c r="A153" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="44"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53"/>
+      <c r="H153" s="53"/>
       <c r="I153" t="s">
         <v>82</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="I154" t="s">
         <v>83</v>
       </c>
-      <c r="J154" s="51" t="str">
+      <c r="J154" s="44" t="str">
         <f>M136</f>
         <v>20-30</v>
       </c>
@@ -5620,20 +5620,20 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J160" s="45" t="s">
+      <c r="J160" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K160" s="44"/>
+      <c r="K160" s="53"/>
     </row>
     <row r="161" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J161" s="44" t="s">
+      <c r="J161" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="K161" s="44"/>
-      <c r="L161" s="44"/>
-      <c r="M161" s="44"/>
-      <c r="N161" s="44"/>
-      <c r="O161" s="44"/>
+      <c r="K161" s="53"/>
+      <c r="L161" s="53"/>
+      <c r="M161" s="53"/>
+      <c r="N161" s="53"/>
+      <c r="O161" s="53"/>
     </row>
     <row r="162" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J162" t="s">
@@ -5663,15 +5663,15 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J185" s="44" t="s">
+      <c r="J185" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K185" s="44"/>
-      <c r="L185" s="44"/>
-      <c r="M185" s="44"/>
-      <c r="N185" s="44"/>
-      <c r="O185" s="44"/>
-      <c r="P185" s="44"/>
+      <c r="K185" s="53"/>
+      <c r="L185" s="53"/>
+      <c r="M185" s="53"/>
+      <c r="N185" s="53"/>
+      <c r="O185" s="53"/>
+      <c r="P185" s="53"/>
     </row>
     <row r="186" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
@@ -5683,46 +5683,46 @@
       <c r="A187" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="K187" s="52" t="s">
+      <c r="K187" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L187" s="53">
+      <c r="L187" s="46">
         <v>10</v>
       </c>
-      <c r="M187" s="53">
+      <c r="M187" s="46">
         <v>20</v>
       </c>
-      <c r="N187" s="53">
+      <c r="N187" s="46">
         <v>30</v>
       </c>
-      <c r="O187" s="53">
+      <c r="O187" s="46">
         <v>40</v>
       </c>
-      <c r="P187" s="59"/>
+      <c r="P187" s="52"/>
     </row>
     <row r="188" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K188" s="55" t="s">
+      <c r="K188" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L188" s="56">
+      <c r="L188" s="49">
         <v>2</v>
       </c>
-      <c r="M188" s="56">
+      <c r="M188" s="49">
         <v>5</v>
       </c>
-      <c r="N188" s="56">
+      <c r="N188" s="49">
         <v>3</v>
       </c>
-      <c r="O188" s="56">
+      <c r="O188" s="49">
         <v>2</v>
       </c>
-      <c r="P188" s="59"/>
+      <c r="P188" s="52"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K189" s="43"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A190" s="57" t="s">
+      <c r="A190" s="50" t="s">
         <v>1</v>
       </c>
       <c r="I190" t="s">
@@ -5799,7 +5799,7 @@
       <c r="A200" t="s">
         <v>40</v>
       </c>
-      <c r="B200" s="58">
+      <c r="B200" s="51">
         <f>_xlfn.STDEV.P(A190:A197)</f>
         <v>2.2314999074019015</v>
       </c>
@@ -5828,21 +5828,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A153:H153"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="J161:O161"/>
-    <mergeCell ref="J185:P185"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N104:O105"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="K88:O89"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B7:C7"/>
@@ -5858,6 +5843,21 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:N15"/>
     <mergeCell ref="K48:L49"/>
+    <mergeCell ref="K88:O89"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N104:O105"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A153:H153"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J161:O161"/>
+    <mergeCell ref="J185:P185"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D9730C-AB88-40D9-8FE4-839B7B576E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D51854-63AB-444A-A46E-28B079B2ECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
   <si>
     <t>Calculate the correlation of the following data</t>
   </si>
@@ -516,6 +516,87 @@
   </si>
   <si>
     <t>Caclulate the SD of the following data</t>
+  </si>
+  <si>
+    <t>Find out the bowley's coff of skewness from the following data</t>
+  </si>
+  <si>
+    <t>X:</t>
+  </si>
+  <si>
+    <t>10,15,9,6,8,10,16,18,19,16,15,10</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>Calculate bowley's coefficient of skewness of the following data</t>
+  </si>
+  <si>
+    <t>class:</t>
+  </si>
+  <si>
+    <t>freq:</t>
+  </si>
+  <si>
+    <t>sk=</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>q1 class</t>
+  </si>
+  <si>
+    <t>q2 class</t>
+  </si>
+  <si>
+    <t>q3 class</t>
+  </si>
+  <si>
+    <t>Sk</t>
+  </si>
+  <si>
+    <t>Calculate the voeff of skewness form the following data</t>
+  </si>
+  <si>
+    <t>p10 class</t>
+  </si>
+  <si>
+    <t>p50 class</t>
+  </si>
+  <si>
+    <t>p90 class</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>p90</t>
+  </si>
+  <si>
+    <t>The distribution is positively skewed</t>
   </si>
 </sst>
 </file>
@@ -979,12 +1060,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,6 +1068,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3948,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC71F3-EDAC-4C28-A1D6-182EE705764F}">
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P312"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="10" zoomScaleNormal="85" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="I205" sqref="I205"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A292" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F315" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,45 +4110,45 @@
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="K7" s="57" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="K7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -4076,33 +4157,33 @@
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="55" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="58"/>
@@ -4114,7 +4195,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="58"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
@@ -4125,10 +4206,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4139,10 +4220,10 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
@@ -4386,10 +4467,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="53"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4514,8 +4595,8 @@
       <c r="A48" s="41">
         <v>1</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
       <c r="K48" s="59">
         <v>1</v>
       </c>
@@ -4847,10 +4928,10 @@
       <c r="C72" s="11"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="55"/>
+      <c r="C75" s="53"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4900,20 +4981,20 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K88" s="53" t="s">
+      <c r="K88" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="57"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="57"/>
+      <c r="O89" s="57"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
@@ -4967,14 +5048,14 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="K93" s="53" t="s">
+      <c r="K93" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="53"/>
-      <c r="O93" s="53"/>
-      <c r="P93" s="53"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="57"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
@@ -4990,25 +5071,25 @@
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="J96" s="54" t="s">
+      <c r="J96" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K96" s="53"/>
-      <c r="N96" s="54" t="s">
+      <c r="K96" s="57"/>
+      <c r="N96" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="O96" s="54"/>
+      <c r="O96" s="56"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="J97" s="53" t="s">
+      <c r="J97" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
+      <c r="K97" s="57"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="57"/>
       <c r="N97" t="s">
         <v>1</v>
       </c>
@@ -5020,12 +5101,12 @@
       <c r="B98">
         <v>10</v>
       </c>
-      <c r="J98" s="53" t="s">
+      <c r="J98" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
+      <c r="K98" s="57"/>
+      <c r="L98" s="57"/>
+      <c r="M98" s="57"/>
       <c r="N98">
         <v>2</v>
       </c>
@@ -5037,12 +5118,12 @@
       <c r="B99">
         <v>6</v>
       </c>
-      <c r="J99" s="53" t="s">
+      <c r="J99" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="57"/>
       <c r="N99">
         <v>7</v>
       </c>
@@ -5078,14 +5159,14 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N104" s="53" t="s">
+      <c r="N104" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O104" s="53"/>
+      <c r="O104" s="57"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
+      <c r="N105" s="57"/>
+      <c r="O105" s="57"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N106" t="s">
@@ -5133,31 +5214,31 @@
       </c>
     </row>
     <row r="122" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K122" s="54" t="s">
+      <c r="K122" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L122" s="53"/>
+      <c r="L122" s="57"/>
     </row>
     <row r="123" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K123" s="53" t="s">
+      <c r="K123" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="L123" s="53"/>
+      <c r="L123" s="57"/>
       <c r="M123" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
       <c r="J135" t="s">
         <v>64</v>
       </c>
@@ -5565,16 +5646,16 @@
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="53" t="s">
+      <c r="A153" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="53"/>
-      <c r="C153" s="53"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
-      <c r="H153" s="53"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
       <c r="I153" t="s">
         <v>82</v>
       </c>
@@ -5620,20 +5701,20 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J160" s="54" t="s">
+      <c r="J160" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K160" s="53"/>
+      <c r="K160" s="57"/>
     </row>
     <row r="161" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J161" s="53" t="s">
+      <c r="J161" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="K161" s="53"/>
-      <c r="L161" s="53"/>
-      <c r="M161" s="53"/>
-      <c r="N161" s="53"/>
-      <c r="O161" s="53"/>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
+      <c r="M161" s="57"/>
+      <c r="N161" s="57"/>
+      <c r="O161" s="57"/>
     </row>
     <row r="162" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J162" t="s">
@@ -5663,15 +5744,15 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J185" s="53" t="s">
+      <c r="J185" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="K185" s="53"/>
-      <c r="L185" s="53"/>
-      <c r="M185" s="53"/>
-      <c r="N185" s="53"/>
-      <c r="O185" s="53"/>
-      <c r="P185" s="53"/>
+      <c r="K185" s="57"/>
+      <c r="L185" s="57"/>
+      <c r="M185" s="57"/>
+      <c r="N185" s="57"/>
+      <c r="O185" s="57"/>
+      <c r="P185" s="57"/>
     </row>
     <row r="186" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
@@ -5826,8 +5907,571 @@
         <v>9.5379359518829983</v>
       </c>
     </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B236" s="57"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="57"/>
+      <c r="E236" s="57"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="57"/>
+      <c r="H236" s="57"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>92</v>
+      </c>
+      <c r="B237" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>10</v>
+      </c>
+      <c r="J240" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>15</v>
+      </c>
+      <c r="I241" t="s">
+        <v>99</v>
+      </c>
+      <c r="J241" t="s">
+        <v>66</v>
+      </c>
+      <c r="K241" t="s">
+        <v>71</v>
+      </c>
+      <c r="L241" t="s">
+        <v>67</v>
+      </c>
+      <c r="M241" t="s">
+        <v>68</v>
+      </c>
+      <c r="N241" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>95</v>
+      </c>
+      <c r="D242">
+        <f>_xlfn.QUARTILE.EXC(A240:A251,1)</f>
+        <v>9.25</v>
+      </c>
+      <c r="I242" t="s">
+        <v>100</v>
+      </c>
+      <c r="J242">
+        <v>2</v>
+      </c>
+      <c r="K242">
+        <v>10</v>
+      </c>
+      <c r="L242">
+        <v>16</v>
+      </c>
+      <c r="M242">
+        <v>8</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>96</v>
+      </c>
+      <c r="D243">
+        <f>_xlfn.QUARTILE.EXC(A242:A253,2)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>8</v>
+      </c>
+      <c r="C244" t="s">
+        <v>94</v>
+      </c>
+      <c r="D244">
+        <f>_xlfn.QUARTILE.EXC(A241:A252,3)</f>
+        <v>16</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>10</v>
+      </c>
+      <c r="J245" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>18</v>
+      </c>
+      <c r="C247" t="s">
+        <v>97</v>
+      </c>
+      <c r="D247">
+        <f>((D244+D242)-(2*D243))/(D244-D242)</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>19</v>
+      </c>
+      <c r="I248" t="s">
+        <v>65</v>
+      </c>
+      <c r="J248" t="s">
+        <v>102</v>
+      </c>
+      <c r="K248" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>16</v>
+      </c>
+      <c r="I249" t="s">
+        <v>66</v>
+      </c>
+      <c r="J249">
+        <v>2</v>
+      </c>
+      <c r="K249">
+        <f>J249</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>15</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I250" t="s">
+        <v>71</v>
+      </c>
+      <c r="J250">
+        <v>10</v>
+      </c>
+      <c r="K250">
+        <f>K249+J250</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>10</v>
+      </c>
+      <c r="C251" t="str">
+        <f>IF(D247&gt;0,"The distribution is positively skewed",IF(D247=0,the distribution is symmetrical,the distribution is negatively skewed))</f>
+        <v>The distribution is positively skewed</v>
+      </c>
+      <c r="I251" t="s">
+        <v>67</v>
+      </c>
+      <c r="J251">
+        <v>16</v>
+      </c>
+      <c r="K251">
+        <f t="shared" ref="K251:K253" si="10">K250+J251</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>68</v>
+      </c>
+      <c r="J252">
+        <v>8</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I253" t="s">
+        <v>69</v>
+      </c>
+      <c r="J253">
+        <v>3</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I254" t="s">
+        <v>51</v>
+      </c>
+      <c r="J254">
+        <f>SUM(J249:J253)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I256" t="s">
+        <v>104</v>
+      </c>
+      <c r="J256">
+        <f>J254/4</f>
+        <v>9.75</v>
+      </c>
+      <c r="K256" t="str">
+        <f>I250</f>
+        <v>10--20</v>
+      </c>
+    </row>
+    <row r="257" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I257" t="s">
+        <v>105</v>
+      </c>
+      <c r="J257">
+        <f>(2*J254)/4</f>
+        <v>19.5</v>
+      </c>
+      <c r="K257" t="str">
+        <f>I251</f>
+        <v>20-30</v>
+      </c>
+    </row>
+    <row r="258" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I258" t="s">
+        <v>106</v>
+      </c>
+      <c r="J258">
+        <f>3*(J254/4)</f>
+        <v>29.25</v>
+      </c>
+      <c r="K258" t="str">
+        <f>I252</f>
+        <v>30-40</v>
+      </c>
+    </row>
+    <row r="260" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>95</v>
+      </c>
+      <c r="J260">
+        <f>10+((J256-K249)/J250)*10</f>
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="261" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
+        <v>96</v>
+      </c>
+      <c r="J261">
+        <f>20+((J257-K250)/J251)*10</f>
+        <v>24.6875</v>
+      </c>
+    </row>
+    <row r="262" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>94</v>
+      </c>
+      <c r="J262">
+        <f>30+((J258-K251)/J252)*10</f>
+        <v>31.5625</v>
+      </c>
+    </row>
+    <row r="264" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I264" t="s">
+        <v>107</v>
+      </c>
+      <c r="J264">
+        <f>((J262+J260)-(2*J261))/(J262-J260)</f>
+        <v>-4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="J266" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="J267" t="str">
+        <f>IF(J264 &gt; 0,"The distribution is positively skewed",IF(J264=0,"the distribution is symmetrical","the distribution is negatively skewed"))</f>
+        <v>the distribution is negatively skewed</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>99</v>
+      </c>
+      <c r="C288" t="s">
+        <v>66</v>
+      </c>
+      <c r="D288" t="s">
+        <v>71</v>
+      </c>
+      <c r="E288" t="s">
+        <v>67</v>
+      </c>
+      <c r="F288" t="s">
+        <v>68</v>
+      </c>
+      <c r="G288" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>100</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289">
+        <v>16</v>
+      </c>
+      <c r="F289">
+        <v>8</v>
+      </c>
+      <c r="G289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>65</v>
+      </c>
+      <c r="B292" t="s">
+        <v>102</v>
+      </c>
+      <c r="C292" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>66</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <f>B293</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>71</v>
+      </c>
+      <c r="B294">
+        <v>10</v>
+      </c>
+      <c r="C294">
+        <f>C293+B294</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>67</v>
+      </c>
+      <c r="B295">
+        <v>16</v>
+      </c>
+      <c r="C295">
+        <f t="shared" ref="C295:C297" si="11">C294+B295</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>68</v>
+      </c>
+      <c r="B296">
+        <v>8</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>69</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>51</v>
+      </c>
+      <c r="B298">
+        <f>SUM(B293:B297)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>113</v>
+      </c>
+      <c r="E299" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>109</v>
+      </c>
+      <c r="C300">
+        <f>10*(B298/100)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="D300">
+        <v>10</v>
+      </c>
+      <c r="E300">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>110</v>
+      </c>
+      <c r="C301">
+        <f>50*(B298/100)</f>
+        <v>19.5</v>
+      </c>
+      <c r="D301">
+        <v>20</v>
+      </c>
+      <c r="E301">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>111</v>
+      </c>
+      <c r="C302">
+        <f>90*(B298/100)</f>
+        <v>35.1</v>
+      </c>
+      <c r="D302">
+        <v>30</v>
+      </c>
+      <c r="E302">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>112</v>
+      </c>
+      <c r="C304">
+        <f>D300+((C300-C293)/B294)*10</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>115</v>
+      </c>
+      <c r="C305">
+        <f t="shared" ref="C305:C306" si="12">D301+((C301-C294)/B295)*10</f>
+        <v>24.6875</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>116</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="12"/>
+        <v>38.875</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>107</v>
+      </c>
+      <c r="C309">
+        <f>((C306+C304)-(2*C305))/(C306-C304)</f>
+        <v>5.189990732159401E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A236:H236"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A153:H153"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J161:O161"/>
+    <mergeCell ref="J185:P185"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N104:O105"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="K88:O89"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B7:C7"/>
@@ -5843,21 +6487,6 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:N15"/>
     <mergeCell ref="K48:L49"/>
-    <mergeCell ref="K88:O89"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N104:O105"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A153:H153"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="J161:O161"/>
-    <mergeCell ref="J185:P185"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D51854-63AB-444A-A46E-28B079B2ECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6ED157-C9DD-4011-9B9C-C5A58A273E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
   <si>
     <t>Calculate the correlation of the following data</t>
   </si>
@@ -598,6 +598,42 @@
   <si>
     <t>The distribution is positively skewed</t>
   </si>
+  <si>
+    <t>Draw the less than freq curve and find out the median graphically</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>(N/2)th term</t>
+  </si>
+  <si>
+    <t>Less than class</t>
+  </si>
+  <si>
+    <t>less than 20</t>
+  </si>
+  <si>
+    <t>less than 30</t>
+  </si>
+  <si>
+    <t>less than 40</t>
+  </si>
+  <si>
+    <t>less than 50</t>
+  </si>
+  <si>
+    <t>less than 60</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>The median of the above distribution is 35</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +711,12 @@
       <vertAlign val="subscript"/>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -942,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1060,6 +1102,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,18 +1117,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1787,6 +1831,308 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$293</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$N$294:$N$298</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>less than 20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>less than 30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>less than 40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>less than 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>less than 60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$O$294:$O$298</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F6D-4988-AE16-6DFA570691BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1309782671"/>
+        <c:axId val="1309781007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1309782671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309781007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1309781007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309782671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1867,6 +2213,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2880,6 +3266,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3688,7 +4590,138 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A01CA0-7E61-4B6F-AAFD-D8326373E064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03966</cdr:x>
+      <cdr:y>0.55208</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43646</cdr:x>
+      <cdr:y>0.55556</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E530E7-B808-4BC8-83B3-E01982EEF974}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="181335" y="1514475"/>
+          <a:ext cx="1814153" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43646</cdr:x>
+      <cdr:y>0.52778</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43854</cdr:x>
+      <cdr:y>0.89583</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4991D3A4-57E2-489A-9BFD-06A582BC1C94}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1995488" y="1447800"/>
+          <a:ext cx="9525" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4029,10 +5062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC71F3-EDAC-4C28-A1D6-182EE705764F}">
-  <dimension ref="A1:P312"/>
+  <dimension ref="A1:Q317"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A292" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F315" sqref="F315"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A289" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O318" sqref="O318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,6 +5073,7 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4110,45 +5144,45 @@
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="K7" s="55" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="K7" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -4157,33 +5191,33 @@
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="57" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="58"/>
@@ -4195,7 +5229,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="58"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
@@ -4206,10 +5240,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4220,10 +5254,10 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
@@ -4467,10 +5501,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="55"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4595,8 +5629,8 @@
       <c r="A48" s="41">
         <v>1</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
       <c r="K48" s="59">
         <v>1</v>
       </c>
@@ -4928,10 +5962,10 @@
       <c r="C72" s="11"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="53"/>
+      <c r="C75" s="55"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4981,20 +6015,20 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K88" s="57" t="s">
+      <c r="K88" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L88" s="57"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="57"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="57"/>
-      <c r="O89" s="57"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="53"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
@@ -5048,14 +6082,14 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="K93" s="57" t="s">
+      <c r="K93" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="57"/>
-      <c r="O93" s="57"/>
-      <c r="P93" s="57"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="53"/>
+      <c r="N93" s="53"/>
+      <c r="O93" s="53"/>
+      <c r="P93" s="53"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
@@ -5071,25 +6105,25 @@
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="J96" s="56" t="s">
+      <c r="J96" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K96" s="57"/>
-      <c r="N96" s="56" t="s">
+      <c r="K96" s="53"/>
+      <c r="N96" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="O96" s="56"/>
+      <c r="O96" s="54"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="J97" s="57" t="s">
+      <c r="J97" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K97" s="57"/>
-      <c r="L97" s="57"/>
-      <c r="M97" s="57"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
+      <c r="M97" s="53"/>
       <c r="N97" t="s">
         <v>1</v>
       </c>
@@ -5101,12 +6135,12 @@
       <c r="B98">
         <v>10</v>
       </c>
-      <c r="J98" s="57" t="s">
+      <c r="J98" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="57"/>
-      <c r="L98" s="57"/>
-      <c r="M98" s="57"/>
+      <c r="K98" s="53"/>
+      <c r="L98" s="53"/>
+      <c r="M98" s="53"/>
       <c r="N98">
         <v>2</v>
       </c>
@@ -5118,12 +6152,12 @@
       <c r="B99">
         <v>6</v>
       </c>
-      <c r="J99" s="57" t="s">
+      <c r="J99" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="57"/>
-      <c r="L99" s="57"/>
-      <c r="M99" s="57"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53"/>
+      <c r="M99" s="53"/>
       <c r="N99">
         <v>7</v>
       </c>
@@ -5159,14 +6193,14 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N104" s="57" t="s">
+      <c r="N104" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O104" s="57"/>
+      <c r="O104" s="53"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N105" s="57"/>
-      <c r="O105" s="57"/>
+      <c r="N105" s="53"/>
+      <c r="O105" s="53"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N106" t="s">
@@ -5214,31 +6248,31 @@
       </c>
     </row>
     <row r="122" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K122" s="56" t="s">
+      <c r="K122" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L122" s="57"/>
+      <c r="L122" s="53"/>
     </row>
     <row r="123" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K123" s="57" t="s">
+      <c r="K123" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L123" s="57"/>
+      <c r="L123" s="53"/>
       <c r="M123" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="57" t="s">
+      <c r="A135" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="57"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="53"/>
       <c r="J135" t="s">
         <v>64</v>
       </c>
@@ -5646,16 +6680,16 @@
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="57" t="s">
+      <c r="A153" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="57"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53"/>
+      <c r="H153" s="53"/>
       <c r="I153" t="s">
         <v>82</v>
       </c>
@@ -5701,20 +6735,20 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J160" s="56" t="s">
+      <c r="J160" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K160" s="57"/>
+      <c r="K160" s="53"/>
     </row>
     <row r="161" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J161" s="57" t="s">
+      <c r="J161" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="K161" s="57"/>
-      <c r="L161" s="57"/>
-      <c r="M161" s="57"/>
-      <c r="N161" s="57"/>
-      <c r="O161" s="57"/>
+      <c r="K161" s="53"/>
+      <c r="L161" s="53"/>
+      <c r="M161" s="53"/>
+      <c r="N161" s="53"/>
+      <c r="O161" s="53"/>
     </row>
     <row r="162" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J162" t="s">
@@ -5744,15 +6778,15 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J185" s="57" t="s">
+      <c r="J185" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K185" s="57"/>
-      <c r="L185" s="57"/>
-      <c r="M185" s="57"/>
-      <c r="N185" s="57"/>
-      <c r="O185" s="57"/>
-      <c r="P185" s="57"/>
+      <c r="K185" s="53"/>
+      <c r="L185" s="53"/>
+      <c r="M185" s="53"/>
+      <c r="N185" s="53"/>
+      <c r="O185" s="53"/>
+      <c r="P185" s="53"/>
     </row>
     <row r="186" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
@@ -5908,16 +6942,16 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="57" t="s">
+      <c r="A236" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B236" s="57"/>
-      <c r="C236" s="57"/>
-      <c r="D236" s="57"/>
-      <c r="E236" s="57"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="57"/>
-      <c r="H236" s="57"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="53"/>
+      <c r="D236" s="53"/>
+      <c r="E236" s="53"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="53"/>
+      <c r="H236" s="53"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
@@ -6230,12 +7264,46 @@
         <v>the distribution is negatively skewed</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I286" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="J286" s="60"/>
+      <c r="K286" s="60"/>
+      <c r="L286" s="60"/>
+      <c r="M286" s="60"/>
+      <c r="N286" s="60"/>
+      <c r="O286" s="60"/>
+      <c r="P286" s="60"/>
+      <c r="Q286" s="60"/>
+    </row>
+    <row r="287" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I287" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="J287" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="K287" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="L287" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="M287" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="N287" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="O287" s="60"/>
+      <c r="P287" s="60"/>
+      <c r="Q287" s="60"/>
+    </row>
+    <row r="288" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>99</v>
       </c>
@@ -6254,8 +7322,29 @@
       <c r="G288" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I288" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J288" s="60">
+        <v>2</v>
+      </c>
+      <c r="K288" s="60">
+        <v>7</v>
+      </c>
+      <c r="L288" s="60">
+        <v>15</v>
+      </c>
+      <c r="M288" s="60">
+        <v>8</v>
+      </c>
+      <c r="N288" s="60">
+        <v>1</v>
+      </c>
+      <c r="O288" s="60"/>
+      <c r="P288" s="60"/>
+      <c r="Q288" s="60"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>100</v>
       </c>
@@ -6275,7 +7364,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I290" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J290" s="53"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J291" t="s">
+        <v>82</v>
+      </c>
+      <c r="K291" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>65</v>
       </c>
@@ -6285,8 +7388,15 @@
       <c r="C292" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I292" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292" s="53"/>
+      <c r="M292" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>66</v>
       </c>
@@ -6297,8 +7407,23 @@
         <f>B293</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J293" t="s">
+        <v>65</v>
+      </c>
+      <c r="K293" t="s">
+        <v>102</v>
+      </c>
+      <c r="L293" t="s">
+        <v>75</v>
+      </c>
+      <c r="N293" t="s">
+        <v>127</v>
+      </c>
+      <c r="O293" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -6309,8 +7434,25 @@
         <f>C293+B294</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J294" t="s">
+        <v>71</v>
+      </c>
+      <c r="K294">
+        <v>2</v>
+      </c>
+      <c r="L294">
+        <f>K294</f>
+        <v>2</v>
+      </c>
+      <c r="N294" t="s">
+        <v>122</v>
+      </c>
+      <c r="O294">
+        <f>L294</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>67</v>
       </c>
@@ -6321,8 +7463,25 @@
         <f t="shared" ref="C295:C297" si="11">C294+B295</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J295" t="s">
+        <v>67</v>
+      </c>
+      <c r="K295">
+        <v>7</v>
+      </c>
+      <c r="L295">
+        <f>L294+K295</f>
+        <v>9</v>
+      </c>
+      <c r="N295" t="s">
+        <v>123</v>
+      </c>
+      <c r="O295">
+        <f>L295</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>68</v>
       </c>
@@ -6333,8 +7492,25 @@
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J296" t="s">
+        <v>68</v>
+      </c>
+      <c r="K296">
+        <v>15</v>
+      </c>
+      <c r="L296">
+        <f t="shared" ref="L296:L298" si="12">L295+K296</f>
+        <v>24</v>
+      </c>
+      <c r="N296" t="s">
+        <v>124</v>
+      </c>
+      <c r="O296">
+        <f>L296</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>69</v>
       </c>
@@ -6345,8 +7521,25 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J297" t="s">
+        <v>69</v>
+      </c>
+      <c r="K297">
+        <v>8</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="N297" t="s">
+        <v>125</v>
+      </c>
+      <c r="O297">
+        <f>L297</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>51</v>
       </c>
@@ -6354,8 +7547,25 @@
         <f>SUM(B293:B297)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J298" t="s">
+        <v>119</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="N298" t="s">
+        <v>126</v>
+      </c>
+      <c r="O298">
+        <f>L298</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
         <v>113</v>
       </c>
@@ -6363,7 +7573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>109</v>
       </c>
@@ -6378,7 +7588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>110</v>
       </c>
@@ -6393,7 +7603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>111</v>
       </c>
@@ -6408,7 +7618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>112</v>
       </c>
@@ -6417,25 +7627,25 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>115</v>
       </c>
       <c r="C305">
-        <f t="shared" ref="C305:C306" si="12">D301+((C301-C294)/B295)*10</f>
+        <f t="shared" ref="C305:C306" si="13">D301+((C301-C294)/B295)*10</f>
         <v>24.6875</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>116</v>
       </c>
       <c r="C306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.875</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>107</v>
       </c>
@@ -6444,34 +7654,30 @@
         <v>5.189990732159401E-2</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I316" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J317" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A236:H236"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A153:H153"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="J161:O161"/>
-    <mergeCell ref="J185:P185"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N104:O105"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="K88:O89"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
+  <mergeCells count="33">
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I292:J292"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B7:C7"/>
@@ -6487,7 +7693,24 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:N15"/>
     <mergeCell ref="K48:L49"/>
+    <mergeCell ref="K88:O89"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N104:O105"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="A236:H236"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A153:H153"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J161:O161"/>
+    <mergeCell ref="J185:P185"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6ED157-C9DD-4011-9B9C-C5A58A273E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467B2AF-D11A-423F-A1DE-ACDD7AF593A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>
@@ -5064,7 +5064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC71F3-EDAC-4C28-A1D6-182EE705764F}">
   <dimension ref="A1:Q317"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A289" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A301" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O318" sqref="O318"/>
     </sheetView>
   </sheetViews>

--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467B2AF-D11A-423F-A1DE-ACDD7AF593A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BE90F0-2146-487A-9331-D1D268CF78EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
   <si>
     <t>Calculate the correlation of the following data</t>
   </si>
@@ -634,6 +634,36 @@
   <si>
     <t>The median of the above distribution is 35</t>
   </si>
+  <si>
+    <t>Fint the following data in a binomial distribution</t>
+  </si>
+  <si>
+    <t>p(0)</t>
+  </si>
+  <si>
+    <t>p(1)</t>
+  </si>
+  <si>
+    <t>p(2)</t>
+  </si>
+  <si>
+    <t>p(3)</t>
+  </si>
+  <si>
+    <t>p(4)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Expected f</t>
+  </si>
+  <si>
+    <t>The data above can be mapped into a binomial distribution as follows</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
@@ -730,7 +760,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -980,11 +1010,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1102,10 +1222,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,8 +1244,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5024,7 +5149,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="A1:K29"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,7 +5171,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="A1:G40"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5062,10 +5187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC71F3-EDAC-4C28-A1D6-182EE705764F}">
-  <dimension ref="A1:Q317"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A301" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O318" sqref="O318"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A349" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,45 +5269,45 @@
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="K7" s="57" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="K7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -5194,45 +5319,45 @@
       <c r="K11" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -5240,10 +5365,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5254,10 +5379,10 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
@@ -5501,10 +5626,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="56"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5629,17 +5754,17 @@
       <c r="A48" s="41">
         <v>1</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="K48" s="59">
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="K48" s="60">
         <v>1</v>
       </c>
-      <c r="L48" s="59"/>
+      <c r="L48" s="60"/>
     </row>
     <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
@@ -5962,10 +6087,10 @@
       <c r="C72" s="11"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="55"/>
+      <c r="C75" s="56"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,20 +6140,20 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K88" s="53" t="s">
+      <c r="K88" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="55"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
@@ -6082,14 +6207,14 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="K93" s="53" t="s">
+      <c r="K93" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="53"/>
-      <c r="O93" s="53"/>
-      <c r="P93" s="53"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="55"/>
+      <c r="O93" s="55"/>
+      <c r="P93" s="55"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
@@ -6108,7 +6233,7 @@
       <c r="J96" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K96" s="53"/>
+      <c r="K96" s="55"/>
       <c r="N96" s="54" t="s">
         <v>17</v>
       </c>
@@ -6118,12 +6243,12 @@
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="J97" s="53" t="s">
+      <c r="J97" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="55"/>
       <c r="N97" t="s">
         <v>1</v>
       </c>
@@ -6135,12 +6260,12 @@
       <c r="B98">
         <v>10</v>
       </c>
-      <c r="J98" s="53" t="s">
+      <c r="J98" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
       <c r="N98">
         <v>2</v>
       </c>
@@ -6152,12 +6277,12 @@
       <c r="B99">
         <v>6</v>
       </c>
-      <c r="J99" s="53" t="s">
+      <c r="J99" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
       <c r="N99">
         <v>7</v>
       </c>
@@ -6193,14 +6318,14 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N104" s="53" t="s">
+      <c r="N104" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="O104" s="53"/>
+      <c r="O104" s="55"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N106" t="s">
@@ -6251,28 +6376,28 @@
       <c r="K122" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L122" s="53"/>
+      <c r="L122" s="55"/>
     </row>
     <row r="123" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K123" s="53" t="s">
+      <c r="K123" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L123" s="53"/>
+      <c r="L123" s="55"/>
       <c r="M123" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="55"/>
       <c r="J135" t="s">
         <v>64</v>
       </c>
@@ -6680,16 +6805,16 @@
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="53" t="s">
+      <c r="A153" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="53"/>
-      <c r="C153" s="53"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
-      <c r="H153" s="53"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="55"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="55"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="55"/>
       <c r="I153" t="s">
         <v>82</v>
       </c>
@@ -6738,17 +6863,17 @@
       <c r="J160" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K160" s="53"/>
+      <c r="K160" s="55"/>
     </row>
     <row r="161" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J161" s="53" t="s">
+      <c r="J161" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="K161" s="53"/>
-      <c r="L161" s="53"/>
-      <c r="M161" s="53"/>
-      <c r="N161" s="53"/>
-      <c r="O161" s="53"/>
+      <c r="K161" s="55"/>
+      <c r="L161" s="55"/>
+      <c r="M161" s="55"/>
+      <c r="N161" s="55"/>
+      <c r="O161" s="55"/>
     </row>
     <row r="162" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J162" t="s">
@@ -6778,15 +6903,15 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J185" s="53" t="s">
+      <c r="J185" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K185" s="53"/>
-      <c r="L185" s="53"/>
-      <c r="M185" s="53"/>
-      <c r="N185" s="53"/>
-      <c r="O185" s="53"/>
-      <c r="P185" s="53"/>
+      <c r="K185" s="55"/>
+      <c r="L185" s="55"/>
+      <c r="M185" s="55"/>
+      <c r="N185" s="55"/>
+      <c r="O185" s="55"/>
+      <c r="P185" s="55"/>
     </row>
     <row r="186" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
@@ -6942,16 +7067,16 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="53" t="s">
+      <c r="A236" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B236" s="53"/>
-      <c r="C236" s="53"/>
-      <c r="D236" s="53"/>
-      <c r="E236" s="53"/>
-      <c r="F236" s="53"/>
-      <c r="G236" s="53"/>
-      <c r="H236" s="53"/>
+      <c r="B236" s="55"/>
+      <c r="C236" s="55"/>
+      <c r="D236" s="55"/>
+      <c r="E236" s="55"/>
+      <c r="F236" s="55"/>
+      <c r="G236" s="55"/>
+      <c r="H236" s="55"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
@@ -7264,46 +7389,35 @@
         <v>the distribution is negatively skewed</v>
       </c>
     </row>
-    <row r="286" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I286" s="60" t="s">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I286" t="s">
         <v>118</v>
       </c>
-      <c r="J286" s="60"/>
-      <c r="K286" s="60"/>
-      <c r="L286" s="60"/>
-      <c r="M286" s="60"/>
-      <c r="N286" s="60"/>
-      <c r="O286" s="60"/>
-      <c r="P286" s="60"/>
-      <c r="Q286" s="60"/>
-    </row>
-    <row r="287" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>108</v>
       </c>
-      <c r="I287" s="60" t="s">
+      <c r="I287" t="s">
         <v>65</v>
       </c>
-      <c r="J287" s="61" t="s">
+      <c r="J287" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="K287" s="60" t="s">
+      <c r="K287" t="s">
         <v>67</v>
       </c>
-      <c r="L287" s="60" t="s">
+      <c r="L287" t="s">
         <v>68</v>
       </c>
-      <c r="M287" s="60" t="s">
+      <c r="M287" t="s">
         <v>69</v>
       </c>
-      <c r="N287" s="60" t="s">
+      <c r="N287" t="s">
         <v>119</v>
       </c>
-      <c r="O287" s="60"/>
-      <c r="P287" s="60"/>
-      <c r="Q287" s="60"/>
-    </row>
-    <row r="288" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>99</v>
       </c>
@@ -7322,27 +7436,24 @@
       <c r="G288" t="s">
         <v>69</v>
       </c>
-      <c r="I288" s="60" t="s">
+      <c r="I288" t="s">
         <v>102</v>
       </c>
-      <c r="J288" s="60">
+      <c r="J288">
         <v>2</v>
       </c>
-      <c r="K288" s="60">
+      <c r="K288">
         <v>7</v>
       </c>
-      <c r="L288" s="60">
+      <c r="L288">
         <v>15</v>
       </c>
-      <c r="M288" s="60">
+      <c r="M288">
         <v>8</v>
       </c>
-      <c r="N288" s="60">
+      <c r="N288">
         <v>1</v>
       </c>
-      <c r="O288" s="60"/>
-      <c r="P288" s="60"/>
-      <c r="Q288" s="60"/>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
@@ -7368,7 +7479,7 @@
       <c r="I290" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J290" s="53"/>
+      <c r="J290" s="55"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J291" t="s">
@@ -7391,7 +7502,7 @@
       <c r="I292" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J292" s="53"/>
+      <c r="J292" s="55"/>
       <c r="M292" t="s">
         <v>121</v>
       </c>
@@ -7674,32 +7785,303 @@
         <v>129</v>
       </c>
     </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>2</v>
+      </c>
+      <c r="F337">
+        <v>3</v>
+      </c>
+      <c r="G337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>7</v>
+      </c>
+      <c r="E338">
+        <v>6</v>
+      </c>
+      <c r="F338">
+        <v>8</v>
+      </c>
+      <c r="G338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342" t="s">
+        <v>22</v>
+      </c>
+      <c r="C342" t="s">
+        <v>23</v>
+      </c>
+      <c r="D342" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <f>B343*A343</f>
+        <v>0</v>
+      </c>
+      <c r="D343" s="12">
+        <f>B355*$B$348</f>
+        <v>1.02581787109375</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344">
+        <v>7</v>
+      </c>
+      <c r="C344">
+        <f t="shared" ref="C344:C347" si="14">B344*A344</f>
+        <v>7</v>
+      </c>
+      <c r="D344" s="12">
+        <f t="shared" ref="D344:D347" si="15">B356*$B$348</f>
+        <v>5.2756347656250009</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345">
+        <v>6</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="D345" s="12">
+        <f t="shared" si="15"/>
+        <v>10.174438476562502</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>3</v>
+      </c>
+      <c r="B346">
+        <v>8</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="D346" s="12">
+        <f t="shared" si="15"/>
+        <v>8.7209472656249982</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>4</v>
+      </c>
+      <c r="B347">
+        <v>5</v>
+      </c>
+      <c r="C347">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="D347" s="12">
+        <f t="shared" si="15"/>
+        <v>2.8031616210937509</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>51</v>
+      </c>
+      <c r="B348">
+        <f>SUM(B343:B347)</f>
+        <v>28</v>
+      </c>
+      <c r="C348">
+        <f>SUM(C343:C347)</f>
+        <v>63</v>
+      </c>
+      <c r="D348" s="12">
+        <f>SUM(D343:D347)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>77</v>
+      </c>
+      <c r="B350">
+        <f>C348/B348</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>27</v>
+      </c>
+      <c r="B351">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352">
+        <f>B351/4</f>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>26</v>
+      </c>
+      <c r="B353">
+        <f>1-B352</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>131</v>
+      </c>
+      <c r="B355">
+        <f>_xlfn.BINOM.DIST(A343,4,$B$352,0)</f>
+        <v>3.66363525390625E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>132</v>
+      </c>
+      <c r="B356">
+        <f t="shared" ref="B356:B359" si="16">_xlfn.BINOM.DIST(A344,4,$B$352,0)</f>
+        <v>0.18841552734375003</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>133</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="16"/>
+        <v>0.36337280273437506</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>134</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="16"/>
+        <v>0.31146240234374994</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>135</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="16"/>
+        <v>0.10011291503906253</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>136</v>
+      </c>
+      <c r="B360">
+        <f>SUM(B355:B359)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="62">
+        <v>0</v>
+      </c>
+      <c r="C364" s="62">
+        <v>1</v>
+      </c>
+      <c r="D364" s="62">
+        <v>2</v>
+      </c>
+      <c r="E364" s="62">
+        <v>3</v>
+      </c>
+      <c r="F364" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B365" s="65">
+        <v>1.02581787109375</v>
+      </c>
+      <c r="C365" s="65">
+        <v>5.2756347656250009</v>
+      </c>
+      <c r="D365" s="65">
+        <v>10.174438476562502</v>
+      </c>
+      <c r="E365" s="65">
+        <v>8.7209472656249982</v>
+      </c>
+      <c r="F365" s="66">
+        <v>2.8031616210937509</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I292:J292"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:N17"/>
-    <mergeCell ref="K12:N13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:N15"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="K88:O89"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N96:O96"/>
     <mergeCell ref="N104:O105"/>
     <mergeCell ref="K122:L122"/>
     <mergeCell ref="K123:L123"/>
@@ -7709,6 +8091,30 @@
     <mergeCell ref="J160:K160"/>
     <mergeCell ref="J161:O161"/>
     <mergeCell ref="J185:P185"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="K88:O89"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:N17"/>
+    <mergeCell ref="K12:N13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I292:J292"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/business Stats/Book2.xlsx
+++ b/business Stats/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BE90F0-2146-487A-9331-D1D268CF78EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2D5C72-BBB8-4451-A81F-9B6B0C87880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{84D76DE3-8557-4722-B5C1-4893E077E0C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="162">
   <si>
     <t>Calculate the correlation of the following data</t>
   </si>
@@ -664,13 +664,80 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t xml:space="preserve">From the following find the Mean and SD </t>
+  </si>
+  <si>
+    <t>10--15</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>fx^2</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>A random sample of 50 gave a mean of 75 kg and SD of 1.5kg</t>
+  </si>
+  <si>
+    <t>Find the 95% confidence limit of the population mean</t>
+  </si>
+  <si>
+    <t>critical value</t>
+  </si>
+  <si>
+    <t>probablity</t>
+  </si>
+  <si>
+    <t>μ</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>μ(low)</t>
+  </si>
+  <si>
+    <t>μ(upp)</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>A random sample of 100 students is found to have mean weight of 55 kg and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and SD of 5kg test hypothesis that the mean test hypothesis that the mean weight </t>
+  </si>
+  <si>
+    <t>of the pop-n is 52 kg at 5% level of significance</t>
+  </si>
+  <si>
+    <t>s mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1104,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1223,11 +1290,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1235,21 +1317,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5187,10 +5255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC71F3-EDAC-4C28-A1D6-182EE705764F}">
-  <dimension ref="A1:P365"/>
+  <dimension ref="A1:P400"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A349" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A382" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J404" sqref="J404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,45 +5337,45 @@
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="K7" s="58" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="K7" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -5316,48 +5384,48 @@
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -5365,10 +5433,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5379,10 +5447,10 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
@@ -5626,10 +5694,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="65"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5754,17 +5822,17 @@
       <c r="A48" s="41">
         <v>1</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="K48" s="60">
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="K48" s="62">
         <v>1</v>
       </c>
-      <c r="L48" s="60"/>
+      <c r="L48" s="62"/>
     </row>
     <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
     </row>
     <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
@@ -6087,10 +6155,10 @@
       <c r="C72" s="11"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="56"/>
+      <c r="C75" s="65"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -6140,20 +6208,20 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K88" s="55" t="s">
+      <c r="K88" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L88" s="55"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="55"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K89" s="55"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="55"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
@@ -6207,14 +6275,14 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="K93" s="55" t="s">
+      <c r="K93" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="55"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="55"/>
-      <c r="O93" s="55"/>
-      <c r="P93" s="55"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="60"/>
+      <c r="O93" s="60"/>
+      <c r="P93" s="60"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
@@ -6230,25 +6298,25 @@
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="J96" s="54" t="s">
+      <c r="J96" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K96" s="55"/>
-      <c r="N96" s="54" t="s">
+      <c r="K96" s="60"/>
+      <c r="N96" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="O96" s="54"/>
+      <c r="O96" s="61"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="J97" s="55" t="s">
+      <c r="J97" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K97" s="55"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="55"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
       <c r="N97" t="s">
         <v>1</v>
       </c>
@@ -6260,12 +6328,12 @@
       <c r="B98">
         <v>10</v>
       </c>
-      <c r="J98" s="55" t="s">
+      <c r="J98" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="55"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="55"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="60"/>
       <c r="N98">
         <v>2</v>
       </c>
@@ -6277,12 +6345,12 @@
       <c r="B99">
         <v>6</v>
       </c>
-      <c r="J99" s="55" t="s">
+      <c r="J99" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="55"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="55"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="60"/>
       <c r="N99">
         <v>7</v>
       </c>
@@ -6318,14 +6386,14 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N104" s="55" t="s">
+      <c r="N104" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="O104" s="55"/>
+      <c r="O104" s="60"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N105" s="55"/>
-      <c r="O105" s="55"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="60"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N106" t="s">
@@ -6373,31 +6441,31 @@
       </c>
     </row>
     <row r="122" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K122" s="54" t="s">
+      <c r="K122" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L122" s="55"/>
+      <c r="L122" s="60"/>
     </row>
     <row r="123" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K123" s="55" t="s">
+      <c r="K123" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L123" s="55"/>
+      <c r="L123" s="60"/>
       <c r="M123" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="55"/>
-      <c r="G135" s="55"/>
-      <c r="H135" s="55"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="60"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="60"/>
       <c r="J135" t="s">
         <v>64</v>
       </c>
@@ -6805,16 +6873,16 @@
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="55" t="s">
+      <c r="A153" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="55"/>
-      <c r="C153" s="55"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="55"/>
-      <c r="F153" s="55"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="55"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
       <c r="I153" t="s">
         <v>82</v>
       </c>
@@ -6860,20 +6928,20 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J160" s="54" t="s">
+      <c r="J160" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K160" s="55"/>
+      <c r="K160" s="60"/>
     </row>
     <row r="161" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J161" s="55" t="s">
+      <c r="J161" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K161" s="55"/>
-      <c r="L161" s="55"/>
-      <c r="M161" s="55"/>
-      <c r="N161" s="55"/>
-      <c r="O161" s="55"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="60"/>
+      <c r="M161" s="60"/>
+      <c r="N161" s="60"/>
+      <c r="O161" s="60"/>
     </row>
     <row r="162" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J162" t="s">
@@ -6903,15 +6971,15 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J185" s="55" t="s">
+      <c r="J185" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="K185" s="55"/>
-      <c r="L185" s="55"/>
-      <c r="M185" s="55"/>
-      <c r="N185" s="55"/>
-      <c r="O185" s="55"/>
-      <c r="P185" s="55"/>
+      <c r="K185" s="60"/>
+      <c r="L185" s="60"/>
+      <c r="M185" s="60"/>
+      <c r="N185" s="60"/>
+      <c r="O185" s="60"/>
+      <c r="P185" s="60"/>
     </row>
     <row r="186" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
@@ -7067,16 +7135,16 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="55" t="s">
+      <c r="A236" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B236" s="55"/>
-      <c r="C236" s="55"/>
-      <c r="D236" s="55"/>
-      <c r="E236" s="55"/>
-      <c r="F236" s="55"/>
-      <c r="G236" s="55"/>
-      <c r="H236" s="55"/>
+      <c r="B236" s="60"/>
+      <c r="C236" s="60"/>
+      <c r="D236" s="60"/>
+      <c r="E236" s="60"/>
+      <c r="F236" s="60"/>
+      <c r="G236" s="60"/>
+      <c r="H236" s="60"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
@@ -7476,10 +7544,10 @@
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I290" s="54" t="s">
+      <c r="I290" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="J290" s="55"/>
+      <c r="J290" s="60"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J291" t="s">
@@ -7499,10 +7567,10 @@
       <c r="C292" t="s">
         <v>103</v>
       </c>
-      <c r="I292" s="54" t="s">
+      <c r="I292" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="J292" s="55"/>
+      <c r="J292" s="60"/>
       <c r="M292" t="s">
         <v>121</v>
       </c>
@@ -7790,7 +7858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>1</v>
       </c>
@@ -7810,7 +7878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>22</v>
       </c>
@@ -7829,8 +7897,51 @@
       <c r="G338">
         <v>5</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K338" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J339" t="s">
+        <v>65</v>
+      </c>
+      <c r="K339" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="L339" t="s">
+        <v>142</v>
+      </c>
+      <c r="M339" t="s">
+        <v>143</v>
+      </c>
+      <c r="N339" t="s">
+        <v>144</v>
+      </c>
+      <c r="O339" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J340" t="s">
+        <v>102</v>
+      </c>
+      <c r="K340">
+        <v>2</v>
+      </c>
+      <c r="L340">
+        <v>10</v>
+      </c>
+      <c r="M340">
+        <v>20</v>
+      </c>
+      <c r="N340">
+        <v>6</v>
+      </c>
+      <c r="O340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1</v>
       </c>
@@ -7843,8 +7954,11 @@
       <c r="D342" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I342" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>0</v>
       </c>
@@ -7859,8 +7973,29 @@
         <f>B355*$B$348</f>
         <v>1.02581787109375</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J343" t="s">
+        <v>65</v>
+      </c>
+      <c r="K343" t="s">
+        <v>102</v>
+      </c>
+      <c r="L343" t="s">
+        <v>113</v>
+      </c>
+      <c r="M343" t="s">
+        <v>114</v>
+      </c>
+      <c r="N343" t="s">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
+        <v>23</v>
+      </c>
+      <c r="P343" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1</v>
       </c>
@@ -7875,8 +8010,33 @@
         <f t="shared" ref="D344:D347" si="15">B356*$B$348</f>
         <v>5.2756347656250009</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J344" t="s">
+        <v>141</v>
+      </c>
+      <c r="K344">
+        <v>2</v>
+      </c>
+      <c r="L344">
+        <v>10</v>
+      </c>
+      <c r="M344">
+        <f>L344+5</f>
+        <v>15</v>
+      </c>
+      <c r="N344">
+        <f>(M344+L344)/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="O344">
+        <f>K344*N344</f>
+        <v>25</v>
+      </c>
+      <c r="P344">
+        <f>(N344*N344)*K344</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7891,8 +8051,33 @@
         <f t="shared" si="15"/>
         <v>10.174438476562502</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J345" t="s">
+        <v>142</v>
+      </c>
+      <c r="K345">
+        <v>10</v>
+      </c>
+      <c r="L345">
+        <v>15</v>
+      </c>
+      <c r="M345">
+        <f t="shared" ref="M345:M348" si="16">L345+5</f>
+        <v>20</v>
+      </c>
+      <c r="N345">
+        <f t="shared" ref="N345:N348" si="17">(M345+L345)/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="O345">
+        <f t="shared" ref="O345:O348" si="18">K345*N345</f>
+        <v>175</v>
+      </c>
+      <c r="P345">
+        <f t="shared" ref="P345:P348" si="19">(N345*N345)*K345</f>
+        <v>3062.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3</v>
       </c>
@@ -7907,8 +8092,33 @@
         <f t="shared" si="15"/>
         <v>8.7209472656249982</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J346" t="s">
+        <v>143</v>
+      </c>
+      <c r="K346">
+        <v>20</v>
+      </c>
+      <c r="L346">
+        <v>20</v>
+      </c>
+      <c r="M346">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="N346">
+        <f t="shared" si="17"/>
+        <v>22.5</v>
+      </c>
+      <c r="O346">
+        <f t="shared" si="18"/>
+        <v>450</v>
+      </c>
+      <c r="P346">
+        <f t="shared" si="19"/>
+        <v>10125</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>4</v>
       </c>
@@ -7923,8 +8133,33 @@
         <f t="shared" si="15"/>
         <v>2.8031616210937509</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J347" t="s">
+        <v>144</v>
+      </c>
+      <c r="K347">
+        <v>6</v>
+      </c>
+      <c r="L347">
+        <v>25</v>
+      </c>
+      <c r="M347">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="N347">
+        <f t="shared" si="17"/>
+        <v>27.5</v>
+      </c>
+      <c r="O347">
+        <f t="shared" si="18"/>
+        <v>165</v>
+      </c>
+      <c r="P347">
+        <f t="shared" si="19"/>
+        <v>4537.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>51</v>
       </c>
@@ -7940,8 +8175,50 @@
         <f>SUM(D343:D347)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J348" t="s">
+        <v>145</v>
+      </c>
+      <c r="K348">
+        <v>3</v>
+      </c>
+      <c r="L348">
+        <v>30</v>
+      </c>
+      <c r="M348">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="N348">
+        <f t="shared" si="17"/>
+        <v>32.5</v>
+      </c>
+      <c r="O348">
+        <f t="shared" si="18"/>
+        <v>97.5</v>
+      </c>
+      <c r="P348">
+        <f t="shared" si="19"/>
+        <v>3168.75</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J349" t="s">
+        <v>147</v>
+      </c>
+      <c r="K349">
+        <f>SUM(K344:K348)</f>
+        <v>41</v>
+      </c>
+      <c r="O349">
+        <f>SUM(O344:O348)</f>
+        <v>912.5</v>
+      </c>
+      <c r="P349">
+        <f>SUM(P344:P348)</f>
+        <v>21206.25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>77</v>
       </c>
@@ -7950,15 +8227,22 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>27</v>
       </c>
       <c r="B351">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I351" t="s">
+        <v>77</v>
+      </c>
+      <c r="J351" s="11">
+        <f>O349/K349</f>
+        <v>22.256097560975611</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -7966,6 +8250,13 @@
         <f>B351/4</f>
         <v>0.5625</v>
       </c>
+      <c r="I352" t="s">
+        <v>40</v>
+      </c>
+      <c r="J352" s="11">
+        <f>SQRT(1/K349*P349-(J351^2))</f>
+        <v>4.6788600227441126</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
@@ -7990,7 +8281,7 @@
         <v>132</v>
       </c>
       <c r="B356">
-        <f t="shared" ref="B356:B359" si="16">_xlfn.BINOM.DIST(A344,4,$B$352,0)</f>
+        <f t="shared" ref="B356:B359" si="20">_xlfn.BINOM.DIST(A344,4,$B$352,0)</f>
         <v>0.18841552734375003</v>
       </c>
     </row>
@@ -7999,7 +8290,7 @@
         <v>133</v>
       </c>
       <c r="B357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.36337280273437506</v>
       </c>
     </row>
@@ -8008,7 +8299,7 @@
         <v>134</v>
       </c>
       <c r="B358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.31146240234374994</v>
       </c>
     </row>
@@ -8017,7 +8308,7 @@
         <v>135</v>
       </c>
       <c r="B359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.10011291503906253</v>
       </c>
     </row>
@@ -8041,47 +8332,236 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="61" t="s">
+      <c r="A364" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B364" s="62">
+      <c r="B364" s="55">
         <v>0</v>
       </c>
-      <c r="C364" s="62">
+      <c r="C364" s="55">
         <v>1</v>
       </c>
-      <c r="D364" s="62">
+      <c r="D364" s="55">
         <v>2</v>
       </c>
-      <c r="E364" s="62">
+      <c r="E364" s="55">
         <v>3</v>
       </c>
-      <c r="F364" s="63">
+      <c r="F364" s="56">
         <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="64" t="s">
+      <c r="A365" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B365" s="65">
+      <c r="B365" s="58">
         <v>1.02581787109375</v>
       </c>
-      <c r="C365" s="65">
+      <c r="C365" s="58">
         <v>5.2756347656250009</v>
       </c>
-      <c r="D365" s="65">
+      <c r="D365" s="58">
         <v>10.174438476562502</v>
       </c>
-      <c r="E365" s="65">
+      <c r="E365" s="58">
         <v>8.7209472656249982</v>
       </c>
-      <c r="F365" s="66">
+      <c r="F365" s="59">
         <v>2.8031616210937509</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I386" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>148</v>
+      </c>
+      <c r="I387" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>149</v>
+      </c>
+      <c r="I388" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>51</v>
+      </c>
+      <c r="B389">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B390">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B391">
+        <v>1.5</v>
+      </c>
+      <c r="I391" t="s">
+        <v>51</v>
+      </c>
+      <c r="J391">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B392">
+        <v>0.05</v>
+      </c>
+      <c r="C392" t="s">
+        <v>151</v>
+      </c>
+      <c r="D392">
+        <f>1-B392/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I392" t="s">
+        <v>161</v>
+      </c>
+      <c r="J392">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>150</v>
+      </c>
+      <c r="B393" s="67">
+        <f>_xlfn.NORM.S.INV(D392)</f>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="I393" t="s">
+        <v>40</v>
+      </c>
+      <c r="J393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>153</v>
+      </c>
+      <c r="B394" s="51">
+        <f>B391/SQRT(B389)</f>
+        <v>0.21213203435596426</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J394">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>52</v>
+      </c>
+      <c r="B395" s="51">
+        <f>B393*B394</f>
+        <v>0.41577114730490322</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J395">
+        <f>J392-J394</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B396" s="67">
+        <f>B390-B395</f>
+        <v>74.584228852695091</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J396">
+        <f>J393/SQRT(J391)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B397" s="67">
+        <f>B390+B395</f>
+        <v>75.415771147304909</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J397">
+        <f>J395/J396</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I398" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J398">
+        <f>_xlfn.NORM.S.INV(0.975)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I400" t="str">
+        <f>IF(J397&lt;J398,"Null Hypothesis is accepted","Null Hypothesis is rejected")</f>
+        <v>Null Hypothesis is rejected</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I292:J292"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:N17"/>
+    <mergeCell ref="K12:N13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="K88:O89"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N96:O96"/>
     <mergeCell ref="N104:O105"/>
     <mergeCell ref="K122:L122"/>
     <mergeCell ref="K123:L123"/>
@@ -8091,30 +8571,6 @@
     <mergeCell ref="J160:K160"/>
     <mergeCell ref="J161:O161"/>
     <mergeCell ref="J185:P185"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="K88:O89"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:N17"/>
-    <mergeCell ref="K12:N13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:N15"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I292:J292"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
